--- a/AnandERP/AERP.Web.UI/Content/DownloadFiles/GeneralItemMasterExcelFile.xlsx
+++ b/AnandERP/AERP.Web.UI/Content/DownloadFiles/GeneralItemMasterExcelFile.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Item Master" sheetId="1" r:id="R78ff7de254284932"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Item Master" sheetId="1" r:id="R92bf75ef36324551"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -546,22 +546,22 @@
       <x:formula1>"LVG, RMG"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="U4:U100">
-      <x:formula1>"Bottles, Bundle, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Roll, Set, Square feet"</x:formula1>
+      <x:formula1>"Bottles, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Set"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="W4:W100">
-      <x:formula1>"Bottles, Bundle, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Roll, Set, Square feet"</x:formula1>
+      <x:formula1>"Bottles, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Set"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="AB4:AB100">
-      <x:formula1>"Bottles, Bundle, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Roll, Set, Square feet"</x:formula1>
+      <x:formula1>"Bottles, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Set"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="AD4:AD100">
-      <x:formula1>"Bottles, Bundle, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Roll, Set, Square feet"</x:formula1>
+      <x:formula1>"Bottles, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Set"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="AI4:AI100">
-      <x:formula1>"Bottles, Bundle, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Roll, Set, Square feet"</x:formula1>
+      <x:formula1>"Bottles, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Set"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="AK4:AK100">
-      <x:formula1>"Bottles, Bundle, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Roll, Set, Square feet"</x:formula1>
+      <x:formula1>"Bottles, Can, Days, Each, Kilo Gram, Liter, Meter, Month, Numbers, Packet, Pair, Person, Pieces, Postings, Set"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="decimal" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please enter numeric value." sqref="V4:V100">
       <x:formula1>1</x:formula1>
@@ -624,13 +624,13 @@
       <x:formula2>14</x:formula2>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="K4:K100">
-      <x:formula1>"GST 0, GST 12, GST 18, GST 28, GST 5"</x:formula1>
+      <x:formula1>"GST 0, GST 12, GST 18, GST 5"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="A4:A100">
-      <x:formula1>"40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 124, 125, 126, 127, 129, 177, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 292, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 399, 400, 401, 402, 405, 406, 407, 408, 409, 410, 460, 461, 511, 561, 562, 563, 613, 614, 615, 616, 617, 618, 619, 669, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732"</x:formula1>
+      <x:formula1>"40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 124, 125, 126"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="J4:J100">
-      <x:formula1>"AAAAF003, AAAAS002, AAAASOLID, AAAAU001, BBBBLIQUID, CCCCGAS, CCCL001, CCHH01, MMMM001, MMMS001"</x:formula1>
+      <x:formula1>"AAAAS002, AAAASOLID, AAAAU001, BBBBLIQUID, CCCCGAS, CCCL001, CCHH01, MMMM001, MMMS001"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="decimal" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please enter numeric value." sqref="AT4:AT100">
       <x:formula1>1</x:formula1>
